--- a/doc/Overzicht validatie regels NLCS++ t.b.v (version 1).xlsb.xlsx
+++ b/doc/Overzicht validatie regels NLCS++ t.b.v (version 1).xlsb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mwillem6\git\nlcspp_inhoudelijke_validaties_temp\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0662531-6B60-4CED-8B10-88D484BC782F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9752EAD0-9390-4F36-9D62-9E6D3A3BB334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="876" windowWidth="21624" windowHeight="14100" xr2:uid="{94096BEC-D1FD-4E3A-8734-D951399510E2}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{94096BEC-D1FD-4E3A-8734-D951399510E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Validaties bestandniveau" sheetId="1" r:id="rId1"/>
@@ -20,10 +20,9 @@
     <sheet name="Planning" sheetId="5" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Validaties bestandniveau'!$A$1:$J$169</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Validaties bestandniveau'!$A$1:$K$169</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="327">
   <si>
     <t>Nr</t>
   </si>
@@ -1004,6 +1003,27 @@
   </si>
   <si>
     <t>R.28</t>
+  </si>
+  <si>
+    <t>R.21</t>
+  </si>
+  <si>
+    <t>NLCS aanpassing?</t>
+  </si>
+  <si>
+    <t>Dubbele ID's</t>
+  </si>
+  <si>
+    <t>Diameter numeriek?</t>
+  </si>
+  <si>
+    <t>Hoe koppelen indien nieuw?</t>
+  </si>
+  <si>
+    <t>Nieuwe AM mag bestaande kabel niet splitsen</t>
+  </si>
+  <si>
+    <t>XSD Moffunctie nodig</t>
   </si>
 </sst>
 </file>
@@ -1033,17 +1053,20 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Aptos"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1330,6 +1353,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1347,9 +1373,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1687,10 +1710,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643EF772-1D6D-4FBD-A286-566D9586DEDE}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:O169"/>
+  <dimension ref="A1:P169"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1699,18 +1722,19 @@
     <col min="2" max="2" width="45" customWidth="1"/>
     <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.33203125" style="8" hidden="1" customWidth="1"/>
-    <col min="7" max="8" width="27.33203125" style="8" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="254.109375" style="8" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="118.88671875" customWidth="1"/>
-    <col min="11" max="11" width="57" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="39.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="52" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.33203125" style="8" hidden="1" customWidth="1"/>
+    <col min="8" max="9" width="27.33203125" style="8" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="254.109375" style="8" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="118.88671875" customWidth="1"/>
+    <col min="12" max="12" width="57" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="52" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1724,37 +1748,40 @@
         <v>305</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1768,22 +1795,25 @@
       <c r="E2" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="11"/>
-      <c r="J2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="11"/>
+      <c r="K2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L2" s="2"/>
+    </row>
+    <row r="3" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1795,24 +1825,27 @@
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="2" t="s">
+      <c r="G3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="11"/>
+      <c r="K3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1826,26 +1859,26 @@
         <v>306</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="11"/>
-      <c r="J4" s="2" t="s">
+      <c r="G4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="11"/>
+      <c r="K4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>286</v>
       </c>
       <c r="M4" s="11" t="s">
         <v>286</v>
@@ -1853,8 +1886,11 @@
       <c r="N4" s="11" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="O4" s="11" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1867,36 +1903,37 @@
       <c r="D5" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="2" t="s">
+      <c r="G5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="11"/>
+      <c r="K5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>291</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>292</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1909,27 +1946,24 @@
       <c r="D6" t="s">
         <v>308</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="2" t="s">
+      <c r="G6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="11"/>
+      <c r="K6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>294</v>
-      </c>
-      <c r="L6" t="s">
-        <v>283</v>
       </c>
       <c r="M6" t="s">
         <v>283</v>
@@ -1938,10 +1972,13 @@
         <v>283</v>
       </c>
       <c r="O6" t="s">
+        <v>283</v>
+      </c>
+      <c r="P6" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1954,37 +1991,38 @@
       <c r="D7" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="2"/>
+      <c r="F7" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I7" s="11"/>
-      <c r="J7" s="2" t="s">
+      <c r="G7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" s="11"/>
+      <c r="K7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="13" t="s">
+      <c r="L7" s="2"/>
+      <c r="M7" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>297</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>283</v>
       </c>
-      <c r="O7" t="s">
+      <c r="P7" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1996,22 +2034,23 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="2" t="s">
+      <c r="F8" s="2"/>
+      <c r="G8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:16" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -2023,22 +2062,23 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="2" t="s">
+      <c r="F9" s="2"/>
+      <c r="G9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:16" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -2050,22 +2090,23 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="7"/>
-      <c r="J10" s="2" t="s">
+      <c r="F10" s="2"/>
+      <c r="G10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:16" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -2077,22 +2118,23 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="2" t="s">
+      <c r="F11" s="2"/>
+      <c r="G11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:16" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2104,22 +2146,23 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="7"/>
-      <c r="J12" s="2" t="s">
+      <c r="F12" s="2"/>
+      <c r="G12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="7"/>
+      <c r="K12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L12" s="2"/>
+    </row>
+    <row r="13" spans="1:16" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -2131,22 +2174,23 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="7" t="s">
+      <c r="F13" s="2"/>
+      <c r="G13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I13" s="7"/>
-      <c r="J13" s="2" t="s">
+      <c r="J13" s="7"/>
+      <c r="K13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L13" s="2"/>
+    </row>
+    <row r="14" spans="1:16" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -2158,22 +2202,23 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="F14" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="F14" s="2"/>
       <c r="G14" s="7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H14" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="7"/>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="7"/>
+      <c r="K14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L14" s="2"/>
+    </row>
+    <row r="15" spans="1:16" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -2185,22 +2230,23 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="F15" s="2"/>
       <c r="G15" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="7"/>
-      <c r="J15" s="2" t="s">
+      <c r="I15" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="7"/>
+      <c r="K15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:16" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -2212,22 +2258,23 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="F16" s="2"/>
       <c r="G16" s="7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="2" t="s">
+      <c r="J16" s="7"/>
+      <c r="K16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:14" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -2239,22 +2286,23 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="F17" s="2"/>
       <c r="G17" s="7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H17" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I17" s="7"/>
-      <c r="J17" s="2" t="s">
+      <c r="J17" s="7"/>
+      <c r="K17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:14" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -2266,22 +2314,23 @@
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="F18" s="2"/>
       <c r="G18" s="7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H18" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="2" t="s">
+      <c r="J18" s="7"/>
+      <c r="K18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="1:14" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -2293,22 +2342,23 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="F19" s="2"/>
       <c r="G19" s="7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I19" s="7"/>
-      <c r="J19" s="2" t="s">
+      <c r="J19" s="7"/>
+      <c r="K19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="1:14" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -2320,22 +2370,23 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="F20" s="2"/>
       <c r="G20" s="7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I20" s="7"/>
-      <c r="J20" s="2" t="s">
+      <c r="J20" s="7"/>
+      <c r="K20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="1:14" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -2347,22 +2398,23 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="F21" s="2"/>
       <c r="G21" s="7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I21" s="7"/>
-      <c r="J21" s="2" t="s">
+      <c r="J21" s="7"/>
+      <c r="K21" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="1:14" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -2374,22 +2426,23 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="F22" s="2"/>
       <c r="G22" s="7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I22" s="7"/>
-      <c r="J22" s="2" t="s">
+      <c r="J22" s="7"/>
+      <c r="K22" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="1:14" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -2401,22 +2454,23 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G23" s="7" t="s">
+      <c r="F23" s="2"/>
+      <c r="G23" s="9" t="s">
         <v>20</v>
       </c>
       <c r="H23" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="7"/>
-      <c r="J23" s="2" t="s">
+      <c r="I23" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="7"/>
+      <c r="K23" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="1:14" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="1:15" ht="28.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -2428,24 +2482,25 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H24" s="7" t="s">
+      <c r="F24" s="2"/>
+      <c r="G24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="10" t="s">
         <v>20</v>
       </c>
       <c r="I24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="K24" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="L24" s="2"/>
+    </row>
+    <row r="25" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -2458,36 +2513,37 @@
       <c r="D25" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="2"/>
+      <c r="F25" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="F25" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I25" s="11"/>
-      <c r="J25" s="2" t="s">
+      <c r="G25" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J25" s="11"/>
+      <c r="K25" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="L25" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>296</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>300</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -2499,22 +2555,23 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="F26" s="2"/>
       <c r="G26" s="7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I26" s="7"/>
-      <c r="J26" s="2" t="s">
+      <c r="I26" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="7"/>
+      <c r="K26" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="1:14" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -2526,22 +2583,23 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="F27" s="2"/>
       <c r="G27" s="7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I27" s="7"/>
-      <c r="J27" s="2" t="s">
+      <c r="I27" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="7"/>
+      <c r="K27" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="1:14" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -2555,24 +2613,27 @@
       <c r="E28" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="F28" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H28" s="7" t="s">
+      <c r="F28" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="10" t="s">
         <v>10</v>
       </c>
       <c r="I28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J28" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="K28" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="1:14" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L28" s="2"/>
+    </row>
+    <row r="29" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -2586,22 +2647,25 @@
       <c r="E29" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="F29" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I29" s="11"/>
-      <c r="J29" s="2" t="s">
+      <c r="F29" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J29" s="11"/>
+      <c r="K29" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="K29" s="2"/>
-    </row>
-    <row r="30" spans="1:14" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -2613,22 +2677,23 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I30" s="7"/>
-      <c r="J30" s="2" t="s">
+      <c r="F30" s="2"/>
+      <c r="G30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" s="7"/>
+      <c r="K30" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="K30" s="2"/>
-    </row>
-    <row r="31" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -2638,33 +2703,34 @@
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="44" t="s">
-        <v>319</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I31" s="11"/>
-      <c r="J31" s="2" t="s">
+      <c r="D31" s="38"/>
+      <c r="E31" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J31" s="11"/>
+      <c r="K31" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="K31" s="2" t="s">
+      <c r="L31" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -2676,22 +2742,23 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I32" s="7"/>
-      <c r="J32" s="2" t="s">
+      <c r="F32" s="2"/>
+      <c r="G32" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32" s="7"/>
+      <c r="K32" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K32" s="2"/>
-    </row>
-    <row r="33" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -2701,31 +2768,36 @@
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="37"/>
-      <c r="E33" s="2" t="s">
+      <c r="D33" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="E33" s="38" t="s">
+        <v>324</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F33" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H33" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I33" s="11"/>
-      <c r="J33" s="2" t="s">
+      <c r="G33" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J33" s="11"/>
+      <c r="K33" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="K33" s="2" t="s">
+      <c r="L33" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -2738,36 +2810,37 @@
       <c r="D34" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="2"/>
+      <c r="F34" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="F34" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H34" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I34" s="11"/>
-      <c r="J34" s="2" t="s">
+      <c r="G34" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J34" s="11"/>
+      <c r="K34" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="L34" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
         <v>296</v>
       </c>
-      <c r="M34" t="s">
+      <c r="N34" t="s">
         <v>297</v>
       </c>
-      <c r="N34" t="s">
+      <c r="O34" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -2777,33 +2850,34 @@
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="44" t="s">
+      <c r="D35" s="38" t="s">
         <v>319</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="38"/>
+      <c r="F35" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F35" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H35" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I35" s="11"/>
-      <c r="J35" s="2" t="s">
+      <c r="G35" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J35" s="11"/>
+      <c r="K35" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K35" s="2" t="s">
+      <c r="L35" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -2815,22 +2889,23 @@
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I36" s="7"/>
-      <c r="J36" s="2" t="s">
+      <c r="F36" s="2"/>
+      <c r="G36" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36" s="7"/>
+      <c r="K36" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="K36" s="2"/>
-    </row>
-    <row r="37" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -2844,29 +2919,32 @@
         <v>318</v>
       </c>
       <c r="E37" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F37" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H37" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I37" s="11"/>
-      <c r="J37" s="2" t="s">
+      <c r="G37" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J37" s="11"/>
+      <c r="K37" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="K37" s="2" t="s">
+      <c r="L37" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="L37" t="s">
+      <c r="M37" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -2878,22 +2956,23 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I38" s="7"/>
-      <c r="J38" s="2" t="s">
+      <c r="F38" s="2"/>
+      <c r="G38" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38" s="7"/>
+      <c r="K38" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="1:14" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -2905,22 +2984,23 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
-      <c r="F39" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I39" s="7"/>
-      <c r="J39" s="2" t="s">
+      <c r="F39" s="2"/>
+      <c r="G39" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J39" s="7"/>
+      <c r="K39" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K39" s="2"/>
-    </row>
-    <row r="40" spans="1:14" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L39" s="2"/>
+    </row>
+    <row r="40" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -2932,22 +3012,23 @@
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-      <c r="F40" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I40" s="7"/>
-      <c r="J40" s="2" t="s">
+      <c r="F40" s="2"/>
+      <c r="G40" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J40" s="7"/>
+      <c r="K40" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="K40" s="2"/>
-    </row>
-    <row r="41" spans="1:14" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -2959,22 +3040,23 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
-      <c r="F41" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I41" s="7"/>
-      <c r="J41" s="2" t="s">
+      <c r="F41" s="2"/>
+      <c r="G41" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J41" s="7"/>
+      <c r="K41" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="K41" s="2"/>
-    </row>
-    <row r="42" spans="1:14" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -2986,22 +3068,23 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
-      <c r="F42" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I42" s="7"/>
-      <c r="J42" s="2" t="s">
+      <c r="F42" s="2"/>
+      <c r="G42" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J42" s="7"/>
+      <c r="K42" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K42" s="2"/>
-    </row>
-    <row r="43" spans="1:14" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L42" s="2"/>
+    </row>
+    <row r="43" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -3013,22 +3096,23 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
-      <c r="F43" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I43" s="7"/>
-      <c r="J43" s="2" t="s">
+      <c r="F43" s="2"/>
+      <c r="G43" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J43" s="7"/>
+      <c r="K43" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K43" s="2"/>
-    </row>
-    <row r="44" spans="1:14" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -3040,22 +3124,23 @@
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
-      <c r="F44" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I44" s="7"/>
-      <c r="J44" s="2" t="s">
+      <c r="F44" s="2"/>
+      <c r="G44" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J44" s="7"/>
+      <c r="K44" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="K44" s="2"/>
-    </row>
-    <row r="45" spans="1:14" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L44" s="2"/>
+    </row>
+    <row r="45" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -3067,22 +3152,23 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
-      <c r="F45" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I45" s="7"/>
-      <c r="J45" s="2" t="s">
+      <c r="F45" s="2"/>
+      <c r="G45" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J45" s="7"/>
+      <c r="K45" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="K45" s="2"/>
-    </row>
-    <row r="46" spans="1:14" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L45" s="2"/>
+    </row>
+    <row r="46" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -3094,22 +3180,23 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
-      <c r="F46" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I46" s="7"/>
-      <c r="J46" s="2" t="s">
+      <c r="F46" s="2"/>
+      <c r="G46" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J46" s="7"/>
+      <c r="K46" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="K46" s="2"/>
-    </row>
-    <row r="47" spans="1:14" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L46" s="2"/>
+    </row>
+    <row r="47" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -3121,22 +3208,23 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
-      <c r="F47" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G47" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I47" s="7"/>
-      <c r="J47" s="2" t="s">
+      <c r="F47" s="2"/>
+      <c r="G47" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J47" s="7"/>
+      <c r="K47" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="K47" s="2"/>
-    </row>
-    <row r="48" spans="1:14" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L47" s="2"/>
+    </row>
+    <row r="48" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -3148,22 +3236,23 @@
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
-      <c r="F48" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G48" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I48" s="7"/>
-      <c r="J48" s="2" t="s">
+      <c r="F48" s="2"/>
+      <c r="G48" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J48" s="7"/>
+      <c r="K48" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="K48" s="2"/>
-    </row>
-    <row r="49" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L48" s="2"/>
+    </row>
+    <row r="49" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -3175,22 +3264,23 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
-      <c r="F49" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G49" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I49" s="7"/>
-      <c r="J49" s="2" t="s">
+      <c r="F49" s="2"/>
+      <c r="G49" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J49" s="7"/>
+      <c r="K49" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="K49" s="2"/>
-    </row>
-    <row r="50" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L49" s="2"/>
+    </row>
+    <row r="50" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -3202,22 +3292,23 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
-      <c r="F50" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G50" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H50" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I50" s="7"/>
-      <c r="J50" s="2" t="s">
+      <c r="F50" s="2"/>
+      <c r="G50" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J50" s="7"/>
+      <c r="K50" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="K50" s="2"/>
-    </row>
-    <row r="51" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L50" s="2"/>
+    </row>
+    <row r="51" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -3229,22 +3320,23 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
-      <c r="F51" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G51" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H51" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I51" s="7"/>
-      <c r="J51" s="2" t="s">
+      <c r="F51" s="2"/>
+      <c r="G51" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J51" s="7"/>
+      <c r="K51" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K51" s="2"/>
-    </row>
-    <row r="52" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L51" s="2"/>
+    </row>
+    <row r="52" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -3256,22 +3348,23 @@
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
-      <c r="F52" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G52" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H52" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I52" s="7"/>
-      <c r="J52" s="2" t="s">
+      <c r="F52" s="2"/>
+      <c r="G52" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J52" s="7"/>
+      <c r="K52" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="K52" s="2"/>
-    </row>
-    <row r="53" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L52" s="2"/>
+    </row>
+    <row r="53" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -3283,22 +3376,23 @@
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
-      <c r="F53" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G53" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H53" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I53" s="7"/>
-      <c r="J53" s="2" t="s">
+      <c r="F53" s="2"/>
+      <c r="G53" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J53" s="7"/>
+      <c r="K53" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="K53" s="2"/>
-    </row>
-    <row r="54" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L53" s="2"/>
+    </row>
+    <row r="54" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -3310,22 +3404,23 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
-      <c r="F54" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G54" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H54" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I54" s="7"/>
-      <c r="J54" s="2" t="s">
+      <c r="F54" s="2"/>
+      <c r="G54" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J54" s="7"/>
+      <c r="K54" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="K54" s="2"/>
-    </row>
-    <row r="55" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L54" s="2"/>
+    </row>
+    <row r="55" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -3337,22 +3432,23 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
-      <c r="F55" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G55" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H55" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I55" s="7"/>
-      <c r="J55" s="2" t="s">
+      <c r="F55" s="2"/>
+      <c r="G55" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J55" s="7"/>
+      <c r="K55" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="K55" s="2"/>
-    </row>
-    <row r="56" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L55" s="2"/>
+    </row>
+    <row r="56" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -3364,22 +3460,23 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
-      <c r="F56" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G56" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I56" s="7"/>
-      <c r="J56" s="2" t="s">
+      <c r="F56" s="2"/>
+      <c r="G56" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J56" s="7"/>
+      <c r="K56" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="K56" s="2"/>
-    </row>
-    <row r="57" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L56" s="2"/>
+    </row>
+    <row r="57" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -3391,22 +3488,23 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
-      <c r="F57" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G57" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H57" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I57" s="7"/>
-      <c r="J57" s="2" t="s">
+      <c r="F57" s="2"/>
+      <c r="G57" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H57" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J57" s="7"/>
+      <c r="K57" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="K57" s="2"/>
-    </row>
-    <row r="58" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L57" s="2"/>
+    </row>
+    <row r="58" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -3418,22 +3516,23 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
-      <c r="F58" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G58" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H58" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I58" s="7"/>
-      <c r="J58" s="2" t="s">
+      <c r="F58" s="2"/>
+      <c r="G58" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H58" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J58" s="7"/>
+      <c r="K58" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="K58" s="2"/>
-    </row>
-    <row r="59" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L58" s="2"/>
+    </row>
+    <row r="59" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -3445,22 +3544,23 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
-      <c r="F59" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G59" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H59" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I59" s="7"/>
-      <c r="J59" s="2" t="s">
+      <c r="F59" s="2"/>
+      <c r="G59" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H59" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J59" s="7"/>
+      <c r="K59" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="K59" s="2"/>
-    </row>
-    <row r="60" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L59" s="2"/>
+    </row>
+    <row r="60" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -3472,22 +3572,23 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
-      <c r="F60" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G60" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H60" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I60" s="7"/>
-      <c r="J60" s="2" t="s">
+      <c r="F60" s="2"/>
+      <c r="G60" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H60" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J60" s="7"/>
+      <c r="K60" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="K60" s="2"/>
-    </row>
-    <row r="61" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L60" s="2"/>
+    </row>
+    <row r="61" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -3499,22 +3600,23 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
-      <c r="F61" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G61" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H61" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I61" s="7"/>
-      <c r="J61" s="2" t="s">
+      <c r="F61" s="2"/>
+      <c r="G61" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J61" s="7"/>
+      <c r="K61" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="K61" s="2"/>
-    </row>
-    <row r="62" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L61" s="2"/>
+    </row>
+    <row r="62" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -3526,22 +3628,23 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
-      <c r="F62" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G62" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H62" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I62" s="7"/>
-      <c r="J62" s="2" t="s">
+      <c r="F62" s="2"/>
+      <c r="G62" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H62" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J62" s="7"/>
+      <c r="K62" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="K62" s="2"/>
-    </row>
-    <row r="63" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L62" s="2"/>
+    </row>
+    <row r="63" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -3553,22 +3656,23 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
-      <c r="F63" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G63" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H63" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I63" s="7"/>
-      <c r="J63" s="2" t="s">
+      <c r="F63" s="2"/>
+      <c r="G63" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J63" s="7"/>
+      <c r="K63" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="K63" s="2"/>
-    </row>
-    <row r="64" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L63" s="2"/>
+    </row>
+    <row r="64" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -3580,22 +3684,23 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
-      <c r="F64" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G64" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H64" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I64" s="7"/>
-      <c r="J64" s="2" t="s">
+      <c r="F64" s="2"/>
+      <c r="G64" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H64" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J64" s="7"/>
+      <c r="K64" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="K64" s="2"/>
-    </row>
-    <row r="65" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L64" s="2"/>
+    </row>
+    <row r="65" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -3607,22 +3712,23 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
-      <c r="F65" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="F65" s="2"/>
       <c r="G65" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H65" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I65" s="7"/>
-      <c r="J65" s="2" t="s">
+      <c r="I65" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J65" s="7"/>
+      <c r="K65" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="K65" s="2"/>
-    </row>
-    <row r="66" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L65" s="2"/>
+    </row>
+    <row r="66" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -3634,22 +3740,23 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
-      <c r="F66" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G66" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H66" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I66" s="7"/>
-      <c r="J66" s="2" t="s">
+      <c r="F66" s="2"/>
+      <c r="G66" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H66" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J66" s="7"/>
+      <c r="K66" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="K66" s="2"/>
-    </row>
-    <row r="67" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L66" s="2"/>
+    </row>
+    <row r="67" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -3661,22 +3768,23 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
-      <c r="F67" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G67" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H67" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I67" s="7"/>
-      <c r="J67" s="2" t="s">
+      <c r="F67" s="2"/>
+      <c r="G67" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H67" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J67" s="7"/>
+      <c r="K67" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K67" s="2"/>
-    </row>
-    <row r="68" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L67" s="2"/>
+    </row>
+    <row r="68" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -3688,22 +3796,23 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
-      <c r="F68" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G68" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H68" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I68" s="7"/>
-      <c r="J68" s="2" t="s">
+      <c r="F68" s="2"/>
+      <c r="G68" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H68" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I68" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J68" s="7"/>
+      <c r="K68" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="K68" s="2"/>
-    </row>
-    <row r="69" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L68" s="2"/>
+    </row>
+    <row r="69" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -3715,22 +3824,23 @@
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
-      <c r="F69" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G69" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H69" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I69" s="7"/>
-      <c r="J69" s="2" t="s">
+      <c r="F69" s="2"/>
+      <c r="G69" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H69" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J69" s="7"/>
+      <c r="K69" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="K69" s="2"/>
-    </row>
-    <row r="70" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L69" s="2"/>
+    </row>
+    <row r="70" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -3742,22 +3852,23 @@
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
-      <c r="F70" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G70" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H70" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I70" s="7"/>
-      <c r="J70" s="2" t="s">
+      <c r="F70" s="2"/>
+      <c r="G70" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H70" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I70" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J70" s="7"/>
+      <c r="K70" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="K70" s="2"/>
-    </row>
-    <row r="71" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L70" s="2"/>
+    </row>
+    <row r="71" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -3769,22 +3880,23 @@
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
-      <c r="F71" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G71" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H71" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I71" s="7"/>
-      <c r="J71" s="2" t="s">
+      <c r="F71" s="2"/>
+      <c r="G71" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H71" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I71" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J71" s="7"/>
+      <c r="K71" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="K71" s="2"/>
-    </row>
-    <row r="72" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L71" s="2"/>
+    </row>
+    <row r="72" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -3796,22 +3908,23 @@
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
-      <c r="F72" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G72" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H72" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I72" s="7"/>
-      <c r="J72" s="2" t="s">
+      <c r="F72" s="2"/>
+      <c r="G72" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H72" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I72" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J72" s="7"/>
+      <c r="K72" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="K72" s="2"/>
-    </row>
-    <row r="73" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L72" s="2"/>
+    </row>
+    <row r="73" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -3823,22 +3936,23 @@
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
-      <c r="F73" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G73" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H73" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I73" s="7"/>
-      <c r="J73" s="2" t="s">
+      <c r="F73" s="2"/>
+      <c r="G73" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H73" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J73" s="7"/>
+      <c r="K73" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="K73" s="2"/>
-    </row>
-    <row r="74" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L73" s="2"/>
+    </row>
+    <row r="74" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -3850,22 +3964,23 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
-      <c r="F74" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G74" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H74" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I74" s="7"/>
-      <c r="J74" s="2" t="s">
+      <c r="F74" s="2"/>
+      <c r="G74" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H74" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J74" s="7"/>
+      <c r="K74" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="K74" s="2"/>
-    </row>
-    <row r="75" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L74" s="2"/>
+    </row>
+    <row r="75" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -3877,22 +3992,23 @@
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
-      <c r="F75" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G75" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H75" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I75" s="7"/>
-      <c r="J75" s="2" t="s">
+      <c r="F75" s="2"/>
+      <c r="G75" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H75" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J75" s="7"/>
+      <c r="K75" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="K75" s="2"/>
-    </row>
-    <row r="76" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L75" s="2"/>
+    </row>
+    <row r="76" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -3904,22 +4020,23 @@
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
-      <c r="F76" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G76" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H76" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I76" s="7"/>
-      <c r="J76" s="2" t="s">
+      <c r="F76" s="2"/>
+      <c r="G76" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H76" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I76" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J76" s="7"/>
+      <c r="K76" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="K76" s="2"/>
-    </row>
-    <row r="77" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L76" s="2"/>
+    </row>
+    <row r="77" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -3931,22 +4048,23 @@
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
-      <c r="F77" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G77" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H77" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I77" s="7"/>
-      <c r="J77" s="2" t="s">
+      <c r="F77" s="2"/>
+      <c r="G77" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H77" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I77" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J77" s="7"/>
+      <c r="K77" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="K77" s="2"/>
-    </row>
-    <row r="78" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L77" s="2"/>
+    </row>
+    <row r="78" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -3958,22 +4076,23 @@
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
-      <c r="F78" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G78" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H78" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I78" s="7"/>
-      <c r="J78" s="2" t="s">
+      <c r="F78" s="2"/>
+      <c r="G78" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H78" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I78" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J78" s="7"/>
+      <c r="K78" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="K78" s="2"/>
-    </row>
-    <row r="79" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L78" s="2"/>
+    </row>
+    <row r="79" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -3985,22 +4104,23 @@
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
-      <c r="F79" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G79" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H79" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I79" s="7"/>
-      <c r="J79" s="2" t="s">
+      <c r="F79" s="2"/>
+      <c r="G79" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H79" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I79" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J79" s="7"/>
+      <c r="K79" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="K79" s="2"/>
-    </row>
-    <row r="80" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L79" s="2"/>
+    </row>
+    <row r="80" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -4012,22 +4132,23 @@
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
-      <c r="F80" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G80" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H80" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I80" s="7"/>
-      <c r="J80" s="2" t="s">
+      <c r="F80" s="2"/>
+      <c r="G80" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H80" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I80" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J80" s="7"/>
+      <c r="K80" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>80</v>
       </c>
@@ -4039,22 +4160,23 @@
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
-      <c r="F81" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G81" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H81" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I81" s="7"/>
-      <c r="J81" s="2" t="s">
+      <c r="F81" s="2"/>
+      <c r="G81" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H81" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I81" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J81" s="7"/>
+      <c r="K81" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="K81" s="2"/>
-    </row>
-    <row r="82" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L81" s="2"/>
+    </row>
+    <row r="82" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -4066,22 +4188,23 @@
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
-      <c r="F82" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G82" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H82" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I82" s="7"/>
-      <c r="J82" s="2" t="s">
+      <c r="F82" s="2"/>
+      <c r="G82" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H82" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I82" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J82" s="7"/>
+      <c r="K82" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="K82" s="2"/>
-    </row>
-    <row r="83" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L82" s="2"/>
+    </row>
+    <row r="83" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="4">
         <v>82</v>
       </c>
@@ -4093,22 +4216,23 @@
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
-      <c r="F83" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G83" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H83" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I83" s="7"/>
-      <c r="J83" s="2" t="s">
+      <c r="F83" s="2"/>
+      <c r="G83" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H83" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I83" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J83" s="7"/>
+      <c r="K83" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="K83" s="2"/>
-    </row>
-    <row r="84" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L83" s="2"/>
+    </row>
+    <row r="84" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -4120,22 +4244,23 @@
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
-      <c r="F84" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G84" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H84" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I84" s="7"/>
-      <c r="J84" s="2" t="s">
+      <c r="F84" s="2"/>
+      <c r="G84" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H84" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I84" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J84" s="7"/>
+      <c r="K84" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="K84" s="2"/>
-    </row>
-    <row r="85" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L84" s="2"/>
+    </row>
+    <row r="85" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="4">
         <v>84</v>
       </c>
@@ -4147,22 +4272,23 @@
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
-      <c r="F85" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G85" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H85" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I85" s="7"/>
-      <c r="J85" s="2" t="s">
+      <c r="F85" s="2"/>
+      <c r="G85" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H85" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I85" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J85" s="7"/>
+      <c r="K85" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="K85" s="2"/>
-    </row>
-    <row r="86" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L85" s="2"/>
+    </row>
+    <row r="86" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>85</v>
       </c>
@@ -4174,22 +4300,23 @@
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
-      <c r="F86" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G86" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H86" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I86" s="7"/>
-      <c r="J86" s="2" t="s">
+      <c r="F86" s="2"/>
+      <c r="G86" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H86" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I86" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J86" s="7"/>
+      <c r="K86" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="K86" s="2"/>
-    </row>
-    <row r="87" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="L86" s="2"/>
+    </row>
+    <row r="87" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>86</v>
       </c>
@@ -4200,25 +4327,28 @@
         <v>113</v>
       </c>
       <c r="D87" s="37"/>
-      <c r="E87" s="2" t="s">
+      <c r="E87" s="37" t="s">
+        <v>322</v>
+      </c>
+      <c r="F87" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="F87" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G87" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H87" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I87" s="11"/>
-      <c r="J87" s="37" t="s">
+      <c r="G87" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H87" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I87" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J87" s="11"/>
+      <c r="K87" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="K87" s="2"/>
-    </row>
-    <row r="88" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="L87" s="2"/>
+    </row>
+    <row r="88" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>87</v>
       </c>
@@ -4228,26 +4358,31 @@
       <c r="C88" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D88" s="37"/>
-      <c r="E88" s="2" t="s">
+      <c r="D88" s="38" t="s">
+        <v>317</v>
+      </c>
+      <c r="E88" s="38" t="s">
+        <v>325</v>
+      </c>
+      <c r="F88" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="F88" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G88" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H88" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I88" s="11"/>
-      <c r="J88" s="37" t="s">
+      <c r="G88" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H88" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I88" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J88" s="11"/>
+      <c r="K88" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="K88" s="2"/>
-    </row>
-    <row r="89" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L88" s="2"/>
+    </row>
+    <row r="89" spans="1:12" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>88</v>
       </c>
@@ -4257,28 +4392,31 @@
       <c r="C89" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D89" s="37"/>
-      <c r="E89" s="2" t="s">
+      <c r="D89" s="38" t="s">
+        <v>320</v>
+      </c>
+      <c r="E89" s="38"/>
+      <c r="F89" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="F89" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G89" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H89" s="11" t="s">
+      <c r="G89" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H89" s="12" t="s">
         <v>10</v>
       </c>
       <c r="I89" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J89" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="J89" s="37" t="s">
+      <c r="K89" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="K89" s="2"/>
-    </row>
-    <row r="90" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L89" s="2"/>
+    </row>
+    <row r="90" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A90" s="4">
         <v>89</v>
       </c>
@@ -4292,22 +4430,25 @@
       <c r="E90" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="F90" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G90" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H90" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I90" s="11"/>
-      <c r="J90" s="2" t="s">
+      <c r="F90" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G90" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H90" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I90" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J90" s="11"/>
+      <c r="K90" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="K90" s="2"/>
-    </row>
-    <row r="91" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L90" s="2"/>
+    </row>
+    <row r="91" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A91" s="4">
         <v>90</v>
       </c>
@@ -4321,22 +4462,25 @@
       <c r="E91" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="F91" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G91" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H91" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I91" s="11"/>
-      <c r="J91" s="2" t="s">
+      <c r="F91" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G91" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H91" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I91" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J91" s="11"/>
+      <c r="K91" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="K91" s="2"/>
-    </row>
-    <row r="92" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L91" s="2"/>
+    </row>
+    <row r="92" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A92" s="4">
         <v>91</v>
       </c>
@@ -4350,22 +4494,25 @@
       <c r="E92" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="F92" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G92" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H92" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I92" s="11"/>
-      <c r="J92" s="2" t="s">
+      <c r="F92" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G92" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H92" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I92" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J92" s="11"/>
+      <c r="K92" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="K92" s="2"/>
-    </row>
-    <row r="93" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="L92" s="2"/>
+    </row>
+    <row r="93" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A93" s="4">
         <v>92</v>
       </c>
@@ -4379,24 +4526,27 @@
         <v>312</v>
       </c>
       <c r="E93" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F93" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="F93" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G93" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H93" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I93" s="11"/>
-      <c r="J93" s="2" t="s">
+      <c r="G93" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H93" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I93" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J93" s="11"/>
+      <c r="K93" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="K93" s="2"/>
-    </row>
-    <row r="94" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L93" s="2"/>
+    </row>
+    <row r="94" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>93</v>
       </c>
@@ -4408,22 +4558,23 @@
       </c>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
-      <c r="F94" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G94" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H94" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I94" s="7"/>
-      <c r="J94" s="2" t="s">
+      <c r="F94" s="2"/>
+      <c r="G94" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H94" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I94" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J94" s="7"/>
+      <c r="K94" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="K94" s="2"/>
-    </row>
-    <row r="95" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L94" s="2"/>
+    </row>
+    <row r="95" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>94</v>
       </c>
@@ -4435,22 +4586,23 @@
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
-      <c r="F95" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G95" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H95" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I95" s="7"/>
-      <c r="J95" s="2" t="s">
+      <c r="F95" s="2"/>
+      <c r="G95" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H95" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I95" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J95" s="7"/>
+      <c r="K95" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="K95" s="2"/>
-    </row>
-    <row r="96" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="L95" s="2"/>
+    </row>
+    <row r="96" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>95</v>
       </c>
@@ -4463,25 +4615,26 @@
       <c r="D96" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="E96" s="2" t="s">
+      <c r="E96" s="2"/>
+      <c r="F96" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="F96" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G96" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H96" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I96" s="11"/>
-      <c r="J96" s="2" t="s">
+      <c r="G96" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H96" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I96" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J96" s="11"/>
+      <c r="K96" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="K96" s="2"/>
-    </row>
-    <row r="97" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="L96" s="2"/>
+    </row>
+    <row r="97" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>96</v>
       </c>
@@ -4495,24 +4648,27 @@
         <v>313</v>
       </c>
       <c r="E97" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F97" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="F97" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G97" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H97" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I97" s="11"/>
-      <c r="J97" s="2" t="s">
+      <c r="G97" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H97" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I97" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J97" s="11"/>
+      <c r="K97" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="K97" s="2"/>
-    </row>
-    <row r="98" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="L97" s="2"/>
+    </row>
+    <row r="98" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A98" s="4">
         <v>97</v>
       </c>
@@ -4526,24 +4682,27 @@
         <v>317</v>
       </c>
       <c r="E98" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F98" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="F98" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G98" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H98" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I98" s="7"/>
-      <c r="J98" s="2" t="s">
+      <c r="G98" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H98" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I98" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J98" s="7"/>
+      <c r="K98" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="K98" s="2"/>
-    </row>
-    <row r="99" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="L98" s="2"/>
+    </row>
+    <row r="99" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A99" s="4">
         <v>98</v>
       </c>
@@ -4557,24 +4716,27 @@
         <v>317</v>
       </c>
       <c r="E99" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F99" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="F99" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G99" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H99" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I99" s="11"/>
-      <c r="J99" s="2" t="s">
+      <c r="G99" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H99" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I99" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J99" s="11"/>
+      <c r="K99" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="K99" s="2"/>
-    </row>
-    <row r="100" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="L99" s="2"/>
+    </row>
+    <row r="100" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A100" s="4">
         <v>99</v>
       </c>
@@ -4588,24 +4750,27 @@
         <v>317</v>
       </c>
       <c r="E100" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F100" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="F100" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G100" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H100" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="I100" s="7"/>
-      <c r="J100" s="2" t="s">
+      <c r="G100" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H100" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="I100" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J100" s="7"/>
+      <c r="K100" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="K100" s="2"/>
-    </row>
-    <row r="101" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L100" s="2"/>
+    </row>
+    <row r="101" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="4">
         <v>100</v>
       </c>
@@ -4619,26 +4784,29 @@
         <v>317</v>
       </c>
       <c r="E101" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F101" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="F101" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G101" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H101" s="7" t="s">
+      <c r="G101" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H101" s="10" t="s">
         <v>10</v>
       </c>
       <c r="I101" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J101" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="J101" s="2" t="s">
+      <c r="K101" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="K101" s="2"/>
-    </row>
-    <row r="102" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="L101" s="2"/>
+    </row>
+    <row r="102" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A102" s="4">
         <v>101</v>
       </c>
@@ -4652,24 +4820,27 @@
         <v>317</v>
       </c>
       <c r="E102" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F102" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="F102" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G102" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H102" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I102" s="11"/>
-      <c r="J102" s="2" t="s">
+      <c r="G102" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H102" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I102" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J102" s="11"/>
+      <c r="K102" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="K102" s="2"/>
-    </row>
-    <row r="103" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="L102" s="2"/>
+    </row>
+    <row r="103" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A103" s="4">
         <v>102</v>
       </c>
@@ -4683,24 +4854,27 @@
         <v>317</v>
       </c>
       <c r="E103" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F103" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="F103" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G103" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H103" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I103" s="11"/>
-      <c r="J103" s="2" t="s">
+      <c r="G103" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H103" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I103" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J103" s="11"/>
+      <c r="K103" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="K103" s="2"/>
-    </row>
-    <row r="104" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L103" s="2"/>
+    </row>
+    <row r="104" spans="1:16" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="4">
         <v>103</v>
       </c>
@@ -4712,22 +4886,23 @@
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
-      <c r="F104" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G104" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H104" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I104" s="7"/>
-      <c r="J104" s="2" t="s">
+      <c r="F104" s="2"/>
+      <c r="G104" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H104" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I104" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J104" s="7"/>
+      <c r="K104" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="K104" s="2"/>
-    </row>
-    <row r="105" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L104" s="2"/>
+    </row>
+    <row r="105" spans="1:16" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="4">
         <v>104</v>
       </c>
@@ -4739,21 +4914,22 @@
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
-      <c r="F105" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="F105" s="2"/>
       <c r="G105" s="8" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H105" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J105" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I105" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K105" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="K105" s="5"/>
-    </row>
-    <row r="106" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="L105" s="5"/>
+    </row>
+    <row r="106" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A106" s="4">
         <v>105</v>
       </c>
@@ -4766,25 +4942,26 @@
       <c r="D106" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="E106" s="2" t="s">
+      <c r="E106" s="2"/>
+      <c r="F106" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="F106" s="13" t="s">
-        <v>10</v>
-      </c>
       <c r="G106" s="13" t="s">
         <v>10</v>
       </c>
       <c r="H106" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I106" s="13"/>
-      <c r="J106" s="5" t="s">
+      <c r="I106" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J106" s="13"/>
+      <c r="K106" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="K106" s="5"/>
-    </row>
-    <row r="107" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="L106" s="5"/>
+    </row>
+    <row r="107" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A107" s="4">
         <v>106</v>
       </c>
@@ -4797,36 +4974,37 @@
       <c r="D107" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="E107" s="2" t="s">
+      <c r="E107" s="2"/>
+      <c r="F107" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="F107" s="13" t="s">
-        <v>10</v>
-      </c>
       <c r="G107" s="13" t="s">
         <v>10</v>
       </c>
       <c r="H107" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I107" s="13"/>
-      <c r="J107" s="5" t="s">
+      <c r="I107" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J107" s="13"/>
+      <c r="K107" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="K107" s="2" t="s">
+      <c r="L107" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="L107" t="s">
+      <c r="M107" t="s">
         <v>296</v>
       </c>
-      <c r="M107" t="s">
+      <c r="N107" t="s">
         <v>297</v>
       </c>
-      <c r="N107" t="s">
+      <c r="O107" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="108" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A108" s="4">
         <v>107</v>
       </c>
@@ -4839,36 +5017,37 @@
       <c r="D108" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="E108" s="2" t="s">
+      <c r="E108" s="2"/>
+      <c r="F108" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="F108" s="13" t="s">
-        <v>10</v>
-      </c>
       <c r="G108" s="13" t="s">
         <v>10</v>
       </c>
       <c r="H108" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I108" s="13"/>
-      <c r="J108" t="s">
+      <c r="I108" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J108" s="13"/>
+      <c r="K108" t="s">
         <v>130</v>
       </c>
-      <c r="L108" s="13" t="s">
+      <c r="M108" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="M108" t="s">
+      <c r="N108" t="s">
         <v>297</v>
       </c>
-      <c r="N108" t="s">
+      <c r="O108" t="s">
         <v>283</v>
       </c>
-      <c r="O108" t="s">
+      <c r="P108" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="109" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A109" s="4">
         <v>108</v>
       </c>
@@ -4881,36 +5060,37 @@
       <c r="D109" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="E109" s="2" t="s">
+      <c r="E109" s="2"/>
+      <c r="F109" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="F109" s="13" t="s">
-        <v>10</v>
-      </c>
       <c r="G109" s="13" t="s">
         <v>10</v>
       </c>
       <c r="H109" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I109" s="13"/>
-      <c r="J109" t="s">
+      <c r="I109" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J109" s="13"/>
+      <c r="K109" t="s">
         <v>131</v>
       </c>
-      <c r="L109" s="13" t="s">
+      <c r="M109" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="M109" t="s">
+      <c r="N109" t="s">
         <v>297</v>
       </c>
-      <c r="N109" t="s">
+      <c r="O109" t="s">
         <v>283</v>
       </c>
-      <c r="O109" t="s">
+      <c r="P109" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="110" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A110" s="4">
         <v>109</v>
       </c>
@@ -4923,36 +5103,37 @@
       <c r="D110" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="E110" s="2" t="s">
+      <c r="E110" s="2"/>
+      <c r="F110" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="F110" s="13" t="s">
-        <v>10</v>
-      </c>
       <c r="G110" s="13" t="s">
         <v>10</v>
       </c>
       <c r="H110" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I110" s="13"/>
-      <c r="J110" t="s">
+      <c r="I110" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J110" s="13"/>
+      <c r="K110" t="s">
         <v>132</v>
       </c>
-      <c r="K110" s="2" t="s">
+      <c r="L110" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="L110" t="s">
+      <c r="M110" t="s">
         <v>296</v>
       </c>
-      <c r="M110" t="s">
+      <c r="N110" t="s">
         <v>297</v>
       </c>
-      <c r="N110" t="s">
+      <c r="O110" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A111" s="4">
         <v>110</v>
       </c>
@@ -4965,36 +5146,37 @@
       <c r="D111" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="E111" s="2" t="s">
+      <c r="E111" s="2"/>
+      <c r="F111" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="F111" s="13" t="s">
-        <v>10</v>
-      </c>
       <c r="G111" s="13" t="s">
         <v>10</v>
       </c>
       <c r="H111" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I111" s="13"/>
-      <c r="J111" t="s">
+      <c r="I111" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J111" s="13"/>
+      <c r="K111" t="s">
         <v>133</v>
       </c>
-      <c r="L111" s="13" t="s">
+      <c r="M111" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="M111" t="s">
+      <c r="N111" t="s">
         <v>297</v>
       </c>
-      <c r="N111" t="s">
+      <c r="O111" t="s">
         <v>283</v>
       </c>
-      <c r="O111" t="s">
+      <c r="P111" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="112" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A112" s="4">
         <v>111</v>
       </c>
@@ -5008,23 +5190,26 @@
         <v>317</v>
       </c>
       <c r="E112" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F112" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="F112" s="13" t="s">
-        <v>10</v>
-      </c>
       <c r="G112" s="13" t="s">
         <v>10</v>
       </c>
       <c r="H112" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I112" s="13"/>
-      <c r="J112" t="s">
+      <c r="I112" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J112" s="13"/>
+      <c r="K112" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="113" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A113" s="4">
         <v>112</v>
       </c>
@@ -5037,24 +5222,25 @@
       <c r="D113" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="E113" s="2" t="s">
+      <c r="E113" s="2"/>
+      <c r="F113" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="F113" s="13" t="s">
-        <v>10</v>
-      </c>
       <c r="G113" s="13" t="s">
         <v>10</v>
       </c>
       <c r="H113" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I113" s="13"/>
-      <c r="J113" t="s">
+      <c r="I113" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J113" s="13"/>
+      <c r="K113" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="114" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A114" s="4">
         <v>113</v>
       </c>
@@ -5067,36 +5253,37 @@
       <c r="D114" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="E114" s="2" t="s">
+      <c r="E114" s="2"/>
+      <c r="F114" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="F114" s="13" t="s">
-        <v>10</v>
-      </c>
       <c r="G114" s="13" t="s">
         <v>10</v>
       </c>
       <c r="H114" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I114" s="13"/>
-      <c r="J114" t="s">
+      <c r="I114" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J114" s="13"/>
+      <c r="K114" t="s">
         <v>136</v>
       </c>
-      <c r="K114" s="2" t="s">
+      <c r="L114" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="L114" t="s">
+      <c r="M114" t="s">
         <v>296</v>
       </c>
-      <c r="M114" t="s">
+      <c r="N114" t="s">
         <v>297</v>
       </c>
-      <c r="N114" t="s">
+      <c r="O114" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="115" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A115" s="4">
         <v>114</v>
       </c>
@@ -5109,24 +5296,25 @@
       <c r="D115" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="E115" s="2" t="s">
+      <c r="E115" s="2"/>
+      <c r="F115" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="F115" s="13" t="s">
-        <v>10</v>
-      </c>
       <c r="G115" s="13" t="s">
         <v>10</v>
       </c>
       <c r="H115" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I115" s="13"/>
-      <c r="J115" t="s">
+      <c r="I115" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J115" s="13"/>
+      <c r="K115" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="116" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A116" s="4">
         <v>115</v>
       </c>
@@ -5139,24 +5327,25 @@
       <c r="D116" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="E116" s="2" t="s">
+      <c r="E116" s="2"/>
+      <c r="F116" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="F116" s="13" t="s">
-        <v>10</v>
-      </c>
       <c r="G116" s="13" t="s">
         <v>10</v>
       </c>
       <c r="H116" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I116" s="13"/>
-      <c r="J116" t="s">
+      <c r="I116" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J116" s="13"/>
+      <c r="K116" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="117" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A117" s="4">
         <v>116</v>
       </c>
@@ -5169,36 +5358,37 @@
       <c r="D117" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="E117" s="2" t="s">
+      <c r="E117" s="2"/>
+      <c r="F117" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="F117" s="13" t="s">
-        <v>10</v>
-      </c>
       <c r="G117" s="13" t="s">
         <v>10</v>
       </c>
       <c r="H117" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I117" s="13"/>
-      <c r="J117" t="s">
+      <c r="I117" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J117" s="13"/>
+      <c r="K117" t="s">
         <v>139</v>
       </c>
-      <c r="K117" s="2" t="s">
+      <c r="L117" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="L117" t="s">
+      <c r="M117" t="s">
         <v>296</v>
       </c>
-      <c r="M117" t="s">
+      <c r="N117" t="s">
         <v>297</v>
       </c>
-      <c r="N117" t="s">
+      <c r="O117" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="118" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A118" s="4">
         <v>117</v>
       </c>
@@ -5212,23 +5402,26 @@
         <v>316</v>
       </c>
       <c r="E118" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F118" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="F118" s="13" t="s">
-        <v>10</v>
-      </c>
       <c r="G118" s="13" t="s">
         <v>10</v>
       </c>
       <c r="H118" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I118" s="13"/>
-      <c r="J118" t="s">
+      <c r="I118" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J118" s="13"/>
+      <c r="K118" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="119" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A119" s="4">
         <v>118</v>
       </c>
@@ -5242,23 +5435,26 @@
         <v>317</v>
       </c>
       <c r="E119" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F119" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="F119" s="13" t="s">
-        <v>10</v>
-      </c>
       <c r="G119" s="13" t="s">
         <v>10</v>
       </c>
       <c r="H119" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I119" s="13"/>
-      <c r="J119" t="s">
+      <c r="I119" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J119" s="13"/>
+      <c r="K119" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="120" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A120" s="4">
         <v>119</v>
       </c>
@@ -5271,24 +5467,25 @@
       <c r="D120" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="E120" s="2" t="s">
+      <c r="E120" s="2"/>
+      <c r="F120" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="F120" s="13" t="s">
-        <v>10</v>
-      </c>
       <c r="G120" s="13" t="s">
         <v>10</v>
       </c>
       <c r="H120" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I120" s="13"/>
-      <c r="J120" t="s">
+      <c r="I120" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J120" s="13"/>
+      <c r="K120" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="121" spans="1:14" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A121" s="4">
         <v>120</v>
       </c>
@@ -5301,36 +5498,37 @@
       <c r="D121" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="E121" s="2" t="s">
+      <c r="E121" s="2"/>
+      <c r="F121" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="F121" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G121" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="H121" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="I121" s="13"/>
-      <c r="J121" t="s">
+      <c r="G121" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H121" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I121" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J121" s="13"/>
+      <c r="K121" t="s">
         <v>143</v>
       </c>
-      <c r="K121" s="2" t="s">
+      <c r="L121" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="L121" t="s">
+      <c r="M121" t="s">
         <v>296</v>
       </c>
-      <c r="M121" t="s">
+      <c r="N121" t="s">
         <v>297</v>
       </c>
-      <c r="N121" t="s">
+      <c r="O121" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="122" spans="1:14" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="4">
         <v>121</v>
       </c>
@@ -5342,23 +5540,24 @@
       </c>
       <c r="D122" s="2"/>
       <c r="E122" s="2"/>
-      <c r="F122" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G122" s="10" t="s">
+      <c r="F122" s="2"/>
+      <c r="G122" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H122" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H122" s="8" t="s">
-        <v>10</v>
-      </c>
       <c r="I122" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J122" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="J122" t="s">
+      <c r="K122" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="123" spans="1:14" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="4">
         <v>122</v>
       </c>
@@ -5370,23 +5569,24 @@
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="2"/>
-      <c r="F123" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G123" s="10" t="s">
+      <c r="F123" s="2"/>
+      <c r="G123" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H123" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H123" s="8" t="s">
-        <v>10</v>
-      </c>
       <c r="I123" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J123" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="J123" t="s">
+      <c r="K123" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="124" spans="1:14" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="4">
         <v>123</v>
       </c>
@@ -5398,23 +5598,24 @@
       </c>
       <c r="D124" s="2"/>
       <c r="E124" s="2"/>
-      <c r="F124" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G124" s="10" t="s">
+      <c r="F124" s="2"/>
+      <c r="G124" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H124" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="H124" s="8" t="s">
-        <v>10</v>
-      </c>
       <c r="I124" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J124" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="J124" t="s">
+      <c r="K124" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="125" spans="1:14" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="4">
         <v>124</v>
       </c>
@@ -5426,23 +5627,24 @@
       </c>
       <c r="D125" s="2"/>
       <c r="E125" s="2"/>
-      <c r="F125" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G125" s="10" t="s">
+      <c r="F125" s="2"/>
+      <c r="G125" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H125" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="H125" s="8" t="s">
-        <v>10</v>
-      </c>
       <c r="I125" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J125" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="J125" t="s">
+      <c r="K125" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="126" spans="1:14" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="4">
         <v>125</v>
       </c>
@@ -5454,23 +5656,24 @@
       </c>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
-      <c r="F126" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G126" s="10" t="s">
+      <c r="F126" s="2"/>
+      <c r="G126" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H126" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="H126" s="8" t="s">
-        <v>10</v>
-      </c>
       <c r="I126" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J126" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="J126" t="s">
+      <c r="K126" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="127" spans="1:14" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="4">
         <v>126</v>
       </c>
@@ -5482,21 +5685,22 @@
       </c>
       <c r="D127" s="2"/>
       <c r="E127" s="2"/>
-      <c r="F127" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G127" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H127" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I127" s="7"/>
-      <c r="J127" t="s">
+      <c r="F127" s="2"/>
+      <c r="G127" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H127" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I127" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J127" s="7"/>
+      <c r="K127" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="128" spans="1:14" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="4">
         <v>127</v>
       </c>
@@ -5508,21 +5712,22 @@
       </c>
       <c r="D128" s="2"/>
       <c r="E128" s="2"/>
-      <c r="F128" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G128" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H128" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I128" s="7"/>
-      <c r="J128" t="s">
+      <c r="F128" s="2"/>
+      <c r="G128" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H128" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I128" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J128" s="7"/>
+      <c r="K128" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="4">
         <v>128</v>
       </c>
@@ -5534,20 +5739,21 @@
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2"/>
-      <c r="F129" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G129" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H129" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J129" t="s">
+      <c r="F129" s="2"/>
+      <c r="G129" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H129" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I129" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K129" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="4">
         <v>129</v>
       </c>
@@ -5559,20 +5765,21 @@
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="2"/>
-      <c r="F130" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G130" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H130" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J130" t="s">
+      <c r="F130" s="2"/>
+      <c r="G130" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H130" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I130" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K130" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="4">
         <v>130</v>
       </c>
@@ -5584,23 +5791,24 @@
       </c>
       <c r="D131" s="2"/>
       <c r="E131" s="2"/>
-      <c r="F131" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G131" s="10" t="s">
+      <c r="F131" s="2"/>
+      <c r="G131" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H131" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="H131" s="8" t="s">
+      <c r="I131" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="I131" s="8" t="s">
+      <c r="J131" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="J131" t="s">
+      <c r="K131" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="4">
         <v>131</v>
       </c>
@@ -5612,23 +5820,24 @@
       </c>
       <c r="D132" s="2"/>
       <c r="E132" s="2"/>
-      <c r="F132" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G132" s="10" t="s">
+      <c r="F132" s="2"/>
+      <c r="G132" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H132" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="H132" s="8" t="s">
+      <c r="I132" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="I132" s="8" t="s">
+      <c r="J132" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="J132" t="s">
+      <c r="K132" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="4">
         <v>132</v>
       </c>
@@ -5640,20 +5849,21 @@
       </c>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
-      <c r="F133" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G133" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H133" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J133" t="s">
+      <c r="F133" s="2"/>
+      <c r="G133" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H133" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I133" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K133" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="4">
         <v>133</v>
       </c>
@@ -5665,20 +5875,21 @@
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
-      <c r="F134" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G134" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H134" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="J134" t="s">
+      <c r="F134" s="2"/>
+      <c r="G134" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H134" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I134" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K134" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A135" s="4">
         <v>134</v>
       </c>
@@ -5692,29 +5903,32 @@
         <v>318</v>
       </c>
       <c r="E135" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F135" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F135" s="13" t="s">
-        <v>10</v>
-      </c>
       <c r="G135" s="13" t="s">
         <v>10</v>
       </c>
       <c r="H135" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I135" s="13"/>
-      <c r="J135" t="s">
+      <c r="I135" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J135" s="13"/>
+      <c r="K135" t="s">
         <v>160</v>
       </c>
-      <c r="K135" s="13" t="s">
+      <c r="L135" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="L135" t="s">
+      <c r="M135" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="4">
         <v>135</v>
       </c>
@@ -5726,20 +5940,21 @@
       </c>
       <c r="D136" s="2"/>
       <c r="E136" s="2"/>
-      <c r="F136" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="F136" s="2"/>
       <c r="G136" s="8" t="s">
         <v>20</v>
       </c>
       <c r="H136" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J136" t="s">
+      <c r="I136" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K136" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="4">
         <v>136</v>
       </c>
@@ -5751,20 +5966,21 @@
       </c>
       <c r="D137" s="2"/>
       <c r="E137" s="2"/>
-      <c r="F137" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="F137" s="2"/>
       <c r="G137" s="8" t="s">
         <v>20</v>
       </c>
       <c r="H137" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I137" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="J137" t="s">
+      <c r="K137" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="4">
         <v>137</v>
       </c>
@@ -5776,20 +5992,21 @@
       </c>
       <c r="D138" s="2"/>
       <c r="E138" s="2"/>
-      <c r="F138" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="F138" s="2"/>
       <c r="G138" s="8" t="s">
         <v>10</v>
       </c>
       <c r="H138" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I138" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="J138" t="s">
+      <c r="K138" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="4">
         <v>138</v>
       </c>
@@ -5801,20 +6018,21 @@
       </c>
       <c r="D139" s="2"/>
       <c r="E139" s="2"/>
-      <c r="F139" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="F139" s="2"/>
       <c r="G139" s="8" t="s">
         <v>10</v>
       </c>
       <c r="H139" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I139" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="J139" t="s">
+      <c r="K139" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="4">
         <v>139</v>
       </c>
@@ -5826,20 +6044,21 @@
       </c>
       <c r="D140" s="2"/>
       <c r="E140" s="2"/>
-      <c r="F140" s="8" t="s">
-        <v>20</v>
-      </c>
+      <c r="F140" s="2"/>
       <c r="G140" s="8" t="s">
         <v>20</v>
       </c>
       <c r="H140" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J140" t="s">
+      <c r="I140" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K140" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="4">
         <v>140</v>
       </c>
@@ -5851,20 +6070,21 @@
       </c>
       <c r="D141" s="2"/>
       <c r="E141" s="2"/>
-      <c r="F141" s="8" t="s">
-        <v>10</v>
-      </c>
+      <c r="F141" s="2"/>
       <c r="G141" s="8" t="s">
         <v>10</v>
       </c>
       <c r="H141" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I141" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="J141" t="s">
+      <c r="K141" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="4">
         <v>141</v>
       </c>
@@ -5876,20 +6096,21 @@
       </c>
       <c r="D142" s="2"/>
       <c r="E142" s="2"/>
-      <c r="F142" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G142" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H142" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J142" t="s">
+      <c r="F142" s="2"/>
+      <c r="G142" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H142" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I142" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K142" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="4">
         <v>142</v>
       </c>
@@ -5901,20 +6122,21 @@
       </c>
       <c r="D143" s="2"/>
       <c r="E143" s="2"/>
-      <c r="F143" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G143" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H143" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J143" t="s">
+      <c r="F143" s="2"/>
+      <c r="G143" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H143" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I143" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K143" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="4">
         <v>143</v>
       </c>
@@ -5926,20 +6148,21 @@
       </c>
       <c r="D144" s="2"/>
       <c r="E144" s="2"/>
-      <c r="F144" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G144" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H144" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J144" t="s">
+      <c r="F144" s="2"/>
+      <c r="G144" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H144" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I144" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K144" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="145" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="4">
         <v>144</v>
       </c>
@@ -5951,20 +6174,21 @@
       </c>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
-      <c r="F145" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G145" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H145" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J145" t="s">
+      <c r="F145" s="2"/>
+      <c r="G145" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H145" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I145" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K145" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="146" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="4">
         <v>145</v>
       </c>
@@ -5976,20 +6200,21 @@
       </c>
       <c r="D146" s="2"/>
       <c r="E146" s="2"/>
-      <c r="F146" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G146" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H146" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J146" t="s">
+      <c r="F146" s="2"/>
+      <c r="G146" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H146" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I146" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K146" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="147" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="4">
         <v>146</v>
       </c>
@@ -6001,21 +6226,22 @@
       </c>
       <c r="D147" s="2"/>
       <c r="E147" s="2"/>
-      <c r="F147" s="7" t="s">
-        <v>10</v>
-      </c>
+      <c r="F147" s="2"/>
       <c r="G147" s="7" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="H147" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I147" s="7"/>
-      <c r="J147" t="s">
+      <c r="I147" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J147" s="7"/>
+      <c r="K147" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="148" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:12" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A148" s="4">
         <v>147</v>
       </c>
@@ -6029,23 +6255,26 @@
         <v>316</v>
       </c>
       <c r="E148" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F148" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="F148" s="11" t="s">
-        <v>10</v>
-      </c>
       <c r="G148" s="11" t="s">
         <v>10</v>
       </c>
       <c r="H148" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I148" s="11"/>
-      <c r="J148" t="s">
+      <c r="I148" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J148" s="11"/>
+      <c r="K148" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="149" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="4">
         <v>148</v>
       </c>
@@ -6057,22 +6286,23 @@
       </c>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
-      <c r="F149" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G149" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H149" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I149" s="7"/>
-      <c r="J149" s="2" t="s">
+      <c r="F149" s="2"/>
+      <c r="G149" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H149" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I149" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J149" s="7"/>
+      <c r="K149" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="K149" s="2"/>
-    </row>
-    <row r="150" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L149" s="2"/>
+    </row>
+    <row r="150" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="4">
         <v>149</v>
       </c>
@@ -6084,22 +6314,23 @@
       </c>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
-      <c r="F150" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G150" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H150" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I150" s="7"/>
-      <c r="J150" s="2" t="s">
+      <c r="F150" s="2"/>
+      <c r="G150" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H150" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I150" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J150" s="7"/>
+      <c r="K150" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="K150" s="2"/>
-    </row>
-    <row r="151" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L150" s="2"/>
+    </row>
+    <row r="151" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="4">
         <v>150</v>
       </c>
@@ -6111,22 +6342,23 @@
       </c>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
-      <c r="F151" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G151" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H151" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I151" s="7"/>
-      <c r="J151" s="2" t="s">
+      <c r="F151" s="2"/>
+      <c r="G151" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H151" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I151" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J151" s="7"/>
+      <c r="K151" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="K151" s="2"/>
-    </row>
-    <row r="152" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L151" s="2"/>
+    </row>
+    <row r="152" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="4">
         <v>151</v>
       </c>
@@ -6138,22 +6370,23 @@
       </c>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
-      <c r="F152" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G152" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H152" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I152" s="7"/>
-      <c r="J152" s="2" t="s">
+      <c r="F152" s="2"/>
+      <c r="G152" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H152" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I152" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J152" s="7"/>
+      <c r="K152" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="K152" s="2"/>
-    </row>
-    <row r="153" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L152" s="2"/>
+    </row>
+    <row r="153" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="4">
         <v>152</v>
       </c>
@@ -6165,22 +6398,23 @@
       </c>
       <c r="D153" s="2"/>
       <c r="E153" s="2"/>
-      <c r="F153" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G153" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H153" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I153" s="7"/>
-      <c r="J153" s="2" t="s">
+      <c r="F153" s="2"/>
+      <c r="G153" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H153" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I153" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J153" s="7"/>
+      <c r="K153" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="K153" s="2"/>
-    </row>
-    <row r="154" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L153" s="2"/>
+    </row>
+    <row r="154" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="4">
         <v>153</v>
       </c>
@@ -6192,22 +6426,23 @@
       </c>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
-      <c r="F154" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G154" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H154" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I154" s="7"/>
-      <c r="J154" s="2" t="s">
+      <c r="F154" s="2"/>
+      <c r="G154" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H154" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I154" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J154" s="7"/>
+      <c r="K154" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="K154" s="2"/>
-    </row>
-    <row r="155" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L154" s="2"/>
+    </row>
+    <row r="155" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="4">
         <v>154</v>
       </c>
@@ -6219,22 +6454,23 @@
       </c>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
-      <c r="F155" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G155" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H155" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I155" s="7"/>
-      <c r="J155" s="2" t="s">
+      <c r="F155" s="2"/>
+      <c r="G155" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H155" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I155" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J155" s="7"/>
+      <c r="K155" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="K155" s="2"/>
-    </row>
-    <row r="156" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L155" s="2"/>
+    </row>
+    <row r="156" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="4">
         <v>155</v>
       </c>
@@ -6246,22 +6482,23 @@
       </c>
       <c r="D156" s="2"/>
       <c r="E156" s="2"/>
-      <c r="F156" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G156" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H156" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I156" s="7"/>
-      <c r="J156" s="2" t="s">
+      <c r="F156" s="2"/>
+      <c r="G156" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H156" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I156" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J156" s="7"/>
+      <c r="K156" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="K156" s="2"/>
-    </row>
-    <row r="157" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L156" s="2"/>
+    </row>
+    <row r="157" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="4">
         <v>156</v>
       </c>
@@ -6273,22 +6510,23 @@
       </c>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
-      <c r="F157" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G157" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H157" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I157" s="7"/>
-      <c r="J157" s="2" t="s">
+      <c r="F157" s="2"/>
+      <c r="G157" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H157" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I157" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J157" s="7"/>
+      <c r="K157" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="K157" s="2"/>
-    </row>
-    <row r="158" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L157" s="2"/>
+    </row>
+    <row r="158" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="4">
         <v>157</v>
       </c>
@@ -6300,22 +6538,23 @@
       </c>
       <c r="D158" s="2"/>
       <c r="E158" s="2"/>
-      <c r="F158" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G158" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H158" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I158" s="7"/>
-      <c r="J158" s="2" t="s">
+      <c r="F158" s="2"/>
+      <c r="G158" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H158" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I158" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J158" s="7"/>
+      <c r="K158" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="K158" s="2"/>
-    </row>
-    <row r="159" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L158" s="2"/>
+    </row>
+    <row r="159" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="4">
         <v>158</v>
       </c>
@@ -6327,22 +6566,23 @@
       </c>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
-      <c r="F159" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="F159" s="2"/>
       <c r="G159" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H159" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I159" s="7"/>
-      <c r="J159" s="2" t="s">
+      <c r="I159" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J159" s="7"/>
+      <c r="K159" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="K159" s="2"/>
-    </row>
-    <row r="160" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L159" s="2"/>
+    </row>
+    <row r="160" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="4">
         <v>159</v>
       </c>
@@ -6354,22 +6594,23 @@
       </c>
       <c r="D160" s="2"/>
       <c r="E160" s="2"/>
-      <c r="F160" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="F160" s="2"/>
       <c r="G160" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H160" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I160" s="7"/>
-      <c r="J160" s="2" t="s">
+      <c r="I160" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J160" s="7"/>
+      <c r="K160" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="K160" s="2"/>
-    </row>
-    <row r="161" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L160" s="2"/>
+    </row>
+    <row r="161" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="4">
         <v>160</v>
       </c>
@@ -6381,22 +6622,23 @@
       </c>
       <c r="D161" s="2"/>
       <c r="E161" s="2"/>
-      <c r="F161" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G161" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H161" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I161" s="7"/>
-      <c r="J161" s="2" t="s">
+      <c r="F161" s="2"/>
+      <c r="G161" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H161" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I161" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J161" s="7"/>
+      <c r="K161" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="K161" s="2"/>
-    </row>
-    <row r="162" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L161" s="2"/>
+    </row>
+    <row r="162" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="4">
         <v>161</v>
       </c>
@@ -6408,22 +6650,23 @@
       </c>
       <c r="D162" s="2"/>
       <c r="E162" s="2"/>
-      <c r="F162" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G162" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H162" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I162" s="7"/>
-      <c r="J162" s="2" t="s">
+      <c r="F162" s="2"/>
+      <c r="G162" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H162" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I162" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J162" s="7"/>
+      <c r="K162" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="K162" s="2"/>
-    </row>
-    <row r="163" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L162" s="2"/>
+    </row>
+    <row r="163" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="4">
         <v>162</v>
       </c>
@@ -6435,22 +6678,23 @@
       </c>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
-      <c r="F163" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G163" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H163" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I163" s="7"/>
-      <c r="J163" s="2" t="s">
+      <c r="F163" s="2"/>
+      <c r="G163" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H163" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I163" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J163" s="7"/>
+      <c r="K163" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="K163" s="2"/>
-    </row>
-    <row r="164" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L163" s="2"/>
+    </row>
+    <row r="164" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="4">
         <v>163</v>
       </c>
@@ -6462,22 +6706,23 @@
       </c>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
-      <c r="F164" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G164" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H164" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I164" s="7"/>
-      <c r="J164" s="2" t="s">
+      <c r="F164" s="2"/>
+      <c r="G164" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H164" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I164" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J164" s="7"/>
+      <c r="K164" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="K164" s="2"/>
-    </row>
-    <row r="165" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L164" s="2"/>
+    </row>
+    <row r="165" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="4">
         <v>164</v>
       </c>
@@ -6489,22 +6734,23 @@
       </c>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
-      <c r="F165" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G165" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H165" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I165" s="7"/>
-      <c r="J165" s="2" t="s">
+      <c r="F165" s="2"/>
+      <c r="G165" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H165" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I165" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J165" s="7"/>
+      <c r="K165" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="K165" s="2"/>
-    </row>
-    <row r="166" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L165" s="2"/>
+    </row>
+    <row r="166" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="4">
         <v>165</v>
       </c>
@@ -6516,22 +6762,23 @@
       </c>
       <c r="D166" s="2"/>
       <c r="E166" s="2"/>
-      <c r="F166" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G166" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H166" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I166" s="7"/>
-      <c r="J166" s="2" t="s">
+      <c r="F166" s="2"/>
+      <c r="G166" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H166" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I166" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J166" s="7"/>
+      <c r="K166" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="K166" s="2"/>
-    </row>
-    <row r="167" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L166" s="2"/>
+    </row>
+    <row r="167" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="4">
         <v>166</v>
       </c>
@@ -6543,22 +6790,23 @@
       </c>
       <c r="D167" s="2"/>
       <c r="E167" s="2"/>
-      <c r="F167" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G167" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H167" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I167" s="7"/>
-      <c r="J167" s="4" t="s">
+      <c r="F167" s="2"/>
+      <c r="G167" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H167" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I167" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J167" s="7"/>
+      <c r="K167" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="K167" s="4"/>
-    </row>
-    <row r="168" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L167" s="4"/>
+    </row>
+    <row r="168" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="4">
         <v>167</v>
       </c>
@@ -6570,22 +6818,23 @@
       </c>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
-      <c r="F168" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="F168" s="2"/>
       <c r="G168" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H168" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I168" s="7"/>
-      <c r="J168" s="4" t="s">
+      <c r="I168" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J168" s="7"/>
+      <c r="K168" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="K168" s="4"/>
-    </row>
-    <row r="169" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
+      <c r="L168" s="4"/>
+    </row>
+    <row r="169" spans="1:12" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="4">
         <v>168</v>
       </c>
@@ -6597,45 +6846,24 @@
       </c>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
-      <c r="F169" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="F169" s="2"/>
       <c r="G169" s="7" t="s">
         <v>20</v>
       </c>
       <c r="H169" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I169" s="7"/>
-      <c r="J169" s="5" t="s">
+      <c r="I169" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J169" s="7"/>
+      <c r="K169" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="K169" s="5"/>
+      <c r="L169" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J169" xr:uid="{643EF772-1D6D-4FBD-A286-566D9586DEDE}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Schematron Data Check Fase"/>
-        <filter val="Schematron Data Check Verplichte waardes"/>
-        <filter val="Schematron Data CheckAanlegdatum"/>
-        <filter val="Schematron Geometrie Check Verplaatsing"/>
-        <filter val="Schematron Mantelbuis samenstelling"/>
-        <filter val="Schematron Netlogica Check Mof"/>
-        <filter val="Schematron Netlogica Check Netvlak"/>
-        <filter val="Schematron Topologie Check Kabel"/>
-        <filter val="Schemtron Geometrie Check Gebied"/>
-        <filter val="Schemtron Geometrie Check Lijn"/>
-        <filter val="Schemtron Status Check"/>
-        <filter val="XSD + Schematron Bestand"/>
-        <filter val="XSD + Schematron Datacheck Verplichte Waardes"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="5">
-      <filters>
-        <filter val="Ja"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="A1:K169" xr:uid="{643EF772-1D6D-4FBD-A286-566D9586DEDE}">
     <filterColumn colId="6">
       <filters>
         <filter val="Ja"/>
@@ -6646,11 +6874,16 @@
         <filter val="Ja"/>
       </filters>
     </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:J148">
+    <filterColumn colId="8">
+      <filters>
+        <filter val="Ja"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:K148">
       <sortCondition ref="A1:A169"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:J171">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A8:K171">
     <sortCondition ref="B1:B171"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7430,10 +7663,10 @@
       </c>
     </row>
     <row r="3" spans="2:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="42" t="s">
         <v>258</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="39" t="s">
         <v>259</v>
       </c>
       <c r="D3" s="27" t="s">
@@ -7444,14 +7677,14 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="42"/>
-      <c r="C4" s="39"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="40"/>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
     </row>
     <row r="5" spans="2:5" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="43"/>
-      <c r="C5" s="40"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="41"/>
       <c r="D5" s="29" t="s">
         <v>261</v>
       </c>
@@ -7472,35 +7705,35 @@
       </c>
     </row>
     <row r="7" spans="2:5" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="42" t="s">
         <v>265</v>
       </c>
       <c r="C7" s="27" t="s">
         <v>266</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="39" t="s">
         <v>268</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="39">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="42"/>
+      <c r="B8" s="43"/>
       <c r="C8" s="28"/>
-      <c r="D8" s="39"/>
-      <c r="E8" s="39"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
     </row>
     <row r="9" spans="2:5" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="43"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="29" t="s">
         <v>267</v>
       </c>
-      <c r="D9" s="40"/>
-      <c r="E9" s="40"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
     </row>
     <row r="10" spans="2:5" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="42" t="s">
         <v>269</v>
       </c>
       <c r="C10" s="32" t="s">
@@ -7514,13 +7747,13 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="42"/>
+      <c r="B11" s="43"/>
       <c r="C11" s="33"/>
       <c r="D11" s="32"/>
       <c r="E11" s="32"/>
     </row>
     <row r="12" spans="2:5" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="43"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="31" t="s">
         <v>271</v>
       </c>
@@ -7528,32 +7761,32 @@
       <c r="E12" s="34"/>
     </row>
     <row r="13" spans="2:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="42" t="s">
         <v>273</v>
       </c>
       <c r="C13" s="27" t="s">
         <v>274</v>
       </c>
-      <c r="D13" s="38" t="s">
+      <c r="D13" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="E13" s="38">
+      <c r="E13" s="39">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="42"/>
+      <c r="B14" s="43"/>
       <c r="C14" s="28"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="39"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
     </row>
     <row r="15" spans="2:5" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="43"/>
+      <c r="B15" s="44"/>
       <c r="C15" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
     </row>
     <row r="16" spans="2:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="30" t="s">
@@ -7841,26 +8074,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="acf3efd9-cbc4-4eb2-b951-8c737955431f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="271b1742-4cdc-4417-bbf3-545f32d43098" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C47621AE464C634D896A49230B8BCF3E" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="56636274bdddc37ee9a81d91e4213294">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="acf3efd9-cbc4-4eb2-b951-8c737955431f" xmlns:ns3="271b1742-4cdc-4417-bbf3-545f32d43098" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0ea87ad25bac8a77bf96eaf037391a02" ns2:_="" ns3:_="">
     <xsd:import namespace="acf3efd9-cbc4-4eb2-b951-8c737955431f"/>
@@ -8067,32 +8280,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E8C6560-130D-426C-B0C0-4333DE5A694A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="acf3efd9-cbc4-4eb2-b951-8c737955431f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="271b1742-4cdc-4417-bbf3-545f32d43098"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="acf3efd9-cbc4-4eb2-b951-8c737955431f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="271b1742-4cdc-4417-bbf3-545f32d43098" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DEAB1E7-A8CB-4492-9F72-294C566A73C0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE4E7352-42CE-4BF1-8D69-DE80C46DB5AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8111,6 +8319,31 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E8C6560-130D-426C-B0C0-4333DE5A694A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="acf3efd9-cbc4-4eb2-b951-8c737955431f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="271b1742-4cdc-4417-bbf3-545f32d43098"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DEAB1E7-A8CB-4492-9F72-294C566A73C0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{697f104b-d7cb-48c8-ac9f-bd87105bafdc}" enabled="0" method="" siteId="{697f104b-d7cb-48c8-ac9f-bd87105bafdc}" removed="1"/>

--- a/doc/Overzicht validatie regels NLCS++ t.b.v (version 1).xlsb.xlsx
+++ b/doc/Overzicht validatie regels NLCS++ t.b.v (version 1).xlsb.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mwillem6\git\nlcspp_inhoudelijke_validaties_temp\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9752EAD0-9390-4F36-9D62-9E6D3A3BB334}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16D27319-D91F-4CA8-8DC8-04248786C533}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{94096BEC-D1FD-4E3A-8734-D951399510E2}"/>
+    <workbookView xWindow="-28590" yWindow="165" windowWidth="27870" windowHeight="15000" xr2:uid="{94096BEC-D1FD-4E3A-8734-D951399510E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Validaties bestandniveau" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1426" uniqueCount="328">
   <si>
     <t>Nr</t>
   </si>
@@ -1024,6 +1024,9 @@
   </si>
   <si>
     <t>XSD Moffunctie nodig</t>
+  </si>
+  <si>
+    <t>R.29</t>
   </si>
 </sst>
 </file>
@@ -1256,7 +1259,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1350,9 +1353,6 @@
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1712,8 +1712,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="B6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1791,7 +1791,9 @@
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>199</v>
+      </c>
       <c r="E2" s="2" t="s">
         <v>199</v>
       </c>
@@ -1823,7 +1825,9 @@
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>199</v>
+      </c>
       <c r="E3" s="2" t="s">
         <v>199</v>
       </c>
@@ -2609,7 +2613,9 @@
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="2"/>
+      <c r="D28" s="2" t="s">
+        <v>199</v>
+      </c>
       <c r="E28" s="2" t="s">
         <v>199</v>
       </c>
@@ -2643,7 +2649,9 @@
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>199</v>
+      </c>
       <c r="E29" s="2" t="s">
         <v>199</v>
       </c>
@@ -2703,8 +2711,10 @@
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38" t="s">
+      <c r="D31" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="E31" s="37" t="s">
         <v>199</v>
       </c>
       <c r="F31" s="2" t="s">
@@ -2768,10 +2778,10 @@
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D33" s="38" t="s">
+      <c r="D33" s="37" t="s">
         <v>199</v>
       </c>
-      <c r="E33" s="38" t="s">
+      <c r="E33" s="37" t="s">
         <v>324</v>
       </c>
       <c r="F33" s="2" t="s">
@@ -2850,10 +2860,10 @@
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="38" t="s">
+      <c r="D35" s="37" t="s">
         <v>319</v>
       </c>
-      <c r="E35" s="38"/>
+      <c r="E35" s="37"/>
       <c r="F35" s="2" t="s">
         <v>206</v>
       </c>
@@ -4326,11 +4336,13 @@
       <c r="C87" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D87" s="37"/>
+      <c r="D87" s="37" t="s">
+        <v>327</v>
+      </c>
       <c r="E87" s="37" t="s">
         <v>322</v>
       </c>
-      <c r="F87" s="2" t="s">
+      <c r="F87" s="37" t="s">
         <v>208</v>
       </c>
       <c r="G87" s="11" t="s">
@@ -4358,10 +4370,10 @@
       <c r="C88" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D88" s="38" t="s">
+      <c r="D88" s="37" t="s">
         <v>317</v>
       </c>
-      <c r="E88" s="38" t="s">
+      <c r="E88" s="37" t="s">
         <v>325</v>
       </c>
       <c r="F88" s="2" t="s">
@@ -4377,7 +4389,7 @@
         <v>10</v>
       </c>
       <c r="J88" s="11"/>
-      <c r="K88" s="38" t="s">
+      <c r="K88" s="37" t="s">
         <v>79</v>
       </c>
       <c r="L88" s="2"/>
@@ -4392,10 +4404,10 @@
       <c r="C89" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D89" s="38" t="s">
+      <c r="D89" s="37" t="s">
         <v>320</v>
       </c>
-      <c r="E89" s="38"/>
+      <c r="E89" s="37"/>
       <c r="F89" s="2" t="s">
         <v>209</v>
       </c>
@@ -4411,7 +4423,7 @@
       <c r="J89" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="K89" s="38" t="s">
+      <c r="K89" s="37" t="s">
         <v>80</v>
       </c>
       <c r="L89" s="2"/>
@@ -4426,7 +4438,9 @@
       <c r="C90" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D90" s="2"/>
+      <c r="D90" s="2" t="s">
+        <v>199</v>
+      </c>
       <c r="E90" s="2" t="s">
         <v>199</v>
       </c>
@@ -4458,7 +4472,9 @@
       <c r="C91" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D91" s="2"/>
+      <c r="D91" s="2" t="s">
+        <v>199</v>
+      </c>
       <c r="E91" s="2" t="s">
         <v>199</v>
       </c>
@@ -4490,7 +4506,9 @@
       <c r="C92" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D92" s="2"/>
+      <c r="D92" s="2" t="s">
+        <v>199</v>
+      </c>
       <c r="E92" s="2" t="s">
         <v>199</v>
       </c>
@@ -7663,10 +7681,10 @@
       </c>
     </row>
     <row r="3" spans="2:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="41" t="s">
         <v>258</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="38" t="s">
         <v>259</v>
       </c>
       <c r="D3" s="27" t="s">
@@ -7677,14 +7695,14 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="43"/>
-      <c r="C4" s="40"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="39"/>
       <c r="D4" s="28"/>
       <c r="E4" s="28"/>
     </row>
     <row r="5" spans="2:5" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="44"/>
-      <c r="C5" s="41"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="40"/>
       <c r="D5" s="29" t="s">
         <v>261</v>
       </c>
@@ -7705,35 +7723,35 @@
       </c>
     </row>
     <row r="7" spans="2:5" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="41" t="s">
         <v>265</v>
       </c>
       <c r="C7" s="27" t="s">
         <v>266</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="38" t="s">
         <v>268</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="38">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="43"/>
+      <c r="B8" s="42"/>
       <c r="C8" s="28"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
     </row>
     <row r="9" spans="2:5" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="44"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="29" t="s">
         <v>267</v>
       </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
     </row>
     <row r="10" spans="2:5" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="41" t="s">
         <v>269</v>
       </c>
       <c r="C10" s="32" t="s">
@@ -7747,13 +7765,13 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="43"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="33"/>
       <c r="D11" s="32"/>
       <c r="E11" s="32"/>
     </row>
     <row r="12" spans="2:5" ht="83.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="44"/>
+      <c r="B12" s="43"/>
       <c r="C12" s="31" t="s">
         <v>271</v>
       </c>
@@ -7761,32 +7779,32 @@
       <c r="E12" s="34"/>
     </row>
     <row r="13" spans="2:5" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="41" t="s">
         <v>273</v>
       </c>
       <c r="C13" s="27" t="s">
         <v>274</v>
       </c>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="38" t="s">
         <v>276</v>
       </c>
-      <c r="E13" s="39">
+      <c r="E13" s="38">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="43"/>
+      <c r="B14" s="42"/>
       <c r="C14" s="28"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
     </row>
     <row r="15" spans="2:5" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="44"/>
+      <c r="B15" s="43"/>
       <c r="C15" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
     </row>
     <row r="16" spans="2:5" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="30" t="s">
@@ -8074,6 +8092,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="acf3efd9-cbc4-4eb2-b951-8c737955431f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="271b1742-4cdc-4417-bbf3-545f32d43098" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C47621AE464C634D896A49230B8BCF3E" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="56636274bdddc37ee9a81d91e4213294">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="acf3efd9-cbc4-4eb2-b951-8c737955431f" xmlns:ns3="271b1742-4cdc-4417-bbf3-545f32d43098" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0ea87ad25bac8a77bf96eaf037391a02" ns2:_="" ns3:_="">
     <xsd:import namespace="acf3efd9-cbc4-4eb2-b951-8c737955431f"/>
@@ -8280,17 +8309,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="acf3efd9-cbc4-4eb2-b951-8c737955431f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="271b1742-4cdc-4417-bbf3-545f32d43098" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -8301,6 +8319,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E8C6560-130D-426C-B0C0-4333DE5A694A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="acf3efd9-cbc4-4eb2-b951-8c737955431f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="271b1742-4cdc-4417-bbf3-545f32d43098"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE4E7352-42CE-4BF1-8D69-DE80C46DB5AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8319,23 +8354,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E8C6560-130D-426C-B0C0-4333DE5A694A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="acf3efd9-cbc4-4eb2-b951-8c737955431f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="271b1742-4cdc-4417-bbf3-545f32d43098"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6DEAB1E7-A8CB-4492-9F72-294C566A73C0}">
   <ds:schemaRefs>
